--- a/Sim/results.xlsx
+++ b/Sim/results.xlsx
@@ -1,39 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kam/Documents/uni/2 - smde/assignment/SMDE-Simulation/Sim/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DFC0F9-3450-5841-B856-291C9DD2083A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="15960" windowHeight="18080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="24">
   <si>
     <t>Replications</t>
   </si>
@@ -100,12 +78,21 @@
   <si>
     <t>All</t>
   </si>
+  <si>
+    <t>Uniform distribution results</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="0" formatCode="General"/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -115,14 +102,12 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
+      <b val="1"/>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -260,67 +245,73 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+  <cellXfs count="21">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="2" fontId="0" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="49" fontId="0" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -330,85 +321,26 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFFFFFFF"/>
-      <rgbColor rgb="FFFF0000"/>
-      <rgbColor rgb="FF00FF00"/>
-      <rgbColor rgb="FF0000FF"/>
-      <rgbColor rgb="FFFFFF00"/>
-      <rgbColor rgb="FFFF00FF"/>
-      <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF000000"/>
-      <rgbColor rgb="FFDBDBDB"/>
-      <rgbColor rgb="FFA5A5A5"/>
-      <rgbColor rgb="FF3F3F3F"/>
-      <rgbColor rgb="FFBDC0BF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffff0000"/>
+      <rgbColor rgb="ff00ff00"/>
+      <rgbColor rgb="ff0000ff"/>
+      <rgbColor rgb="ffffff00"/>
+      <rgbColor rgb="ffff00ff"/>
+      <rgbColor rgb="ff00ffff"/>
+      <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffa5a5a5"/>
+      <rgbColor rgb="ff3f3f3f"/>
+      <rgbColor rgb="ffbdc0bf"/>
     </indexedColors>
   </colors>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Blank">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Blank">
   <a:themeElements>
     <a:clrScheme name="Blank">
       <a:dk1>
@@ -607,7 +539,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -625,7 +557,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1200" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -654,7 +586,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -679,7 +611,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -704,7 +636,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -729,7 +661,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -754,7 +686,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -779,7 +711,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -804,7 +736,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -829,7 +761,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -854,7 +786,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -867,15 +799,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -892,7 +818,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -910,7 +836,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -935,7 +861,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -960,7 +886,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -985,7 +911,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1010,7 +936,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1035,7 +961,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1060,7 +986,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1085,7 +1011,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1110,7 +1036,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1135,7 +1061,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1148,15 +1074,9 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -1170,7 +1090,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="50800" tIns="50800" rIns="50800" bIns="50800" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -1188,7 +1108,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1217,7 +1137,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1242,7 +1162,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1267,7 +1187,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1292,7 +1212,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1317,7 +1237,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1342,7 +1262,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1367,7 +1287,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1392,7 +1312,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1417,7 +1337,7 @@
           <a:buSzTx/>
           <a:buFontTx/>
           <a:buNone/>
-          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -1430,1180 +1350,1400 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
+        <a:lnRef idx="0"/>
+        <a:fillRef idx="0"/>
+        <a:effectRef idx="0"/>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:R40"/>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A2:U61"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="I22" sqref="I22"/>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
+      <pane topLeftCell="B1" xSplit="1" ySplit="0" activePane="topRight" state="frozen"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="16.33203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="8.6640625" style="1" customWidth="1"/>
-    <col min="3" max="9" width="8.5" style="1" customWidth="1"/>
-    <col min="10" max="10" width="6" style="1" customWidth="1"/>
-    <col min="11" max="11" width="5.1640625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="4.5" style="1" customWidth="1"/>
-    <col min="13" max="13" width="12.33203125" style="1" customWidth="1"/>
-    <col min="14" max="14" width="14" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.5" style="1" customWidth="1"/>
-    <col min="16" max="16" width="16.6640625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="15.6640625" style="1" customWidth="1"/>
-    <col min="18" max="18" width="15.33203125" style="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="16.33203125" style="1"/>
+    <col min="1" max="1" width="9.60938" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.61719" style="1" customWidth="1"/>
+    <col min="3" max="9" width="8.57812" style="1" customWidth="1"/>
+    <col min="10" max="10" width="5.9375" style="13" customWidth="1"/>
+    <col min="11" max="11" width="5.22656" style="13" customWidth="1"/>
+    <col min="12" max="12" width="4.57812" style="13" customWidth="1"/>
+    <col min="13" max="13" width="12.2656" style="13" customWidth="1"/>
+    <col min="14" max="14" width="13.9922" style="13" customWidth="1"/>
+    <col min="15" max="15" width="14.4844" style="13" customWidth="1"/>
+    <col min="16" max="16" width="16.7031" style="13" customWidth="1"/>
+    <col min="17" max="17" width="15.6953" style="13" customWidth="1"/>
+    <col min="18" max="18" width="15.3828" style="13" customWidth="1"/>
+    <col min="19" max="21" width="16.3516" style="20" customWidth="1"/>
+    <col min="22" max="16384" width="16.3516" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="18" t="s">
+    <row r="1" ht="27.65" customHeight="1">
+      <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-    </row>
-    <row r="2" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" ht="20.05" customHeight="1">
+      <c r="A2" t="s" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
+    <row r="3" ht="20.05" customHeight="1">
+      <c r="A3" t="s" s="3">
         <v>4</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
+    <row r="4" ht="20.05" customHeight="1">
+      <c r="A4" t="s" s="3">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" t="s" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="5">
+    <row r="5" ht="20.05" customHeight="1">
+      <c r="A5" s="6">
         <v>1</v>
       </c>
-      <c r="B5" s="6">
-        <v>22778.35</v>
-      </c>
-      <c r="C5" s="7">
-        <v>22831.74</v>
-      </c>
-      <c r="D5" s="7">
-        <v>22709.57</v>
-      </c>
-      <c r="E5" s="7">
-        <v>22750.95</v>
-      </c>
-      <c r="F5" s="8">
-        <v>17877.099999999999</v>
-      </c>
-      <c r="G5" s="7">
-        <v>18061.73</v>
-      </c>
-      <c r="H5" s="7">
-        <v>18102.73</v>
-      </c>
-      <c r="I5" s="8">
-        <v>17987.400000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="5">
+      <c r="B5" s="7">
+        <v>15247.64</v>
+      </c>
+      <c r="C5" s="8">
+        <v>15720.26</v>
+      </c>
+      <c r="D5" s="8">
+        <v>15164.98</v>
+      </c>
+      <c r="E5" s="8">
+        <v>15612.07</v>
+      </c>
+      <c r="F5" s="9">
+        <v>14559.82</v>
+      </c>
+      <c r="G5" s="8">
+        <v>15023.5</v>
+      </c>
+      <c r="H5" s="8">
+        <v>14461.15</v>
+      </c>
+      <c r="I5" s="9">
+        <v>14928.19</v>
+      </c>
+    </row>
+    <row r="6" ht="20.05" customHeight="1">
+      <c r="A6" s="6">
         <v>2</v>
       </c>
-      <c r="B6" s="6">
-        <v>22477.27</v>
-      </c>
-      <c r="C6" s="7">
-        <v>22749.49</v>
-      </c>
-      <c r="D6" s="8">
-        <v>22517.78</v>
-      </c>
-      <c r="E6" s="8">
-        <v>23053.62</v>
-      </c>
-      <c r="F6" s="8">
-        <v>18278.400000000001</v>
-      </c>
-      <c r="G6" s="8">
-        <v>18796.009999999998</v>
-      </c>
-      <c r="H6" s="8">
-        <v>17997.88</v>
-      </c>
-      <c r="I6" s="8">
-        <v>17989.439999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="5">
+      <c r="B6" s="7">
+        <v>15215.91</v>
+      </c>
+      <c r="C6" s="8">
+        <v>15679.8</v>
+      </c>
+      <c r="D6" s="9">
+        <v>15118.79</v>
+      </c>
+      <c r="E6" s="9">
+        <v>15580.55</v>
+      </c>
+      <c r="F6" s="9">
+        <v>14490.65</v>
+      </c>
+      <c r="G6" s="9">
+        <v>14959.56</v>
+      </c>
+      <c r="H6" s="9">
+        <v>14399.79</v>
+      </c>
+      <c r="I6" s="9">
+        <v>14870.01</v>
+      </c>
+    </row>
+    <row r="7" ht="20.05" customHeight="1">
+      <c r="A7" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="6">
-        <v>22938.49</v>
-      </c>
-      <c r="C7" s="7">
-        <v>23023.85</v>
-      </c>
-      <c r="D7" s="8">
-        <v>23315.09</v>
-      </c>
-      <c r="E7" s="8">
-        <v>23101.08</v>
-      </c>
-      <c r="F7" s="8">
-        <v>18875.29</v>
-      </c>
-      <c r="G7" s="8">
-        <v>18679.75</v>
-      </c>
-      <c r="H7" s="8">
-        <v>18526.150000000001</v>
-      </c>
-      <c r="I7" s="8">
-        <v>18459.919999999998</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="5">
+      <c r="B7" s="7">
+        <v>15312.74</v>
+      </c>
+      <c r="C7" s="8">
+        <v>15772.32</v>
+      </c>
+      <c r="D7" s="9">
+        <v>15217.15</v>
+      </c>
+      <c r="E7" s="9">
+        <v>15689.53</v>
+      </c>
+      <c r="F7" s="9">
+        <v>14617.17</v>
+      </c>
+      <c r="G7" s="9">
+        <v>15080.12</v>
+      </c>
+      <c r="H7" s="9">
+        <v>14515.18</v>
+      </c>
+      <c r="I7" s="9">
+        <v>14979.04</v>
+      </c>
+    </row>
+    <row r="8" ht="20.05" customHeight="1">
+      <c r="A8" s="6">
         <v>4</v>
       </c>
-      <c r="B8" s="6">
-        <v>22012.98</v>
-      </c>
-      <c r="C8" s="8">
-        <v>22881.52</v>
-      </c>
-      <c r="D8" s="8">
-        <v>22604</v>
-      </c>
-      <c r="E8" s="8">
-        <v>22404.959999999999</v>
-      </c>
-      <c r="F8" s="8">
-        <v>17972.04</v>
-      </c>
-      <c r="G8" s="8">
-        <v>17932.080000000002</v>
-      </c>
-      <c r="H8" s="8">
-        <v>17886.509999999998</v>
-      </c>
-      <c r="I8" s="8">
-        <v>18049.25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="5">
+      <c r="B8" s="7">
+        <v>15249.29</v>
+      </c>
+      <c r="C8" s="9">
+        <v>15698.73</v>
+      </c>
+      <c r="D8" s="9">
+        <v>15153.37</v>
+      </c>
+      <c r="E8" s="9">
+        <v>15604.13</v>
+      </c>
+      <c r="F8" s="9">
+        <v>14579.2</v>
+      </c>
+      <c r="G8" s="9">
+        <v>15044.64</v>
+      </c>
+      <c r="H8" s="9">
+        <v>14480.01</v>
+      </c>
+      <c r="I8" s="9">
+        <v>14955.5</v>
+      </c>
+    </row>
+    <row r="9" ht="20.05" customHeight="1">
+      <c r="A9" s="6">
         <v>5</v>
       </c>
-      <c r="B9" s="6">
-        <v>22470.880000000001</v>
-      </c>
-      <c r="C9" s="8">
-        <v>22232.240000000002</v>
-      </c>
-      <c r="D9" s="8">
-        <v>22050.31</v>
-      </c>
-      <c r="E9" s="8">
-        <v>22312.31</v>
-      </c>
-      <c r="F9" s="8">
-        <v>17697.61</v>
-      </c>
-      <c r="G9" s="8">
-        <v>17812.86</v>
-      </c>
-      <c r="H9" s="8">
-        <v>17597.330000000002</v>
-      </c>
-      <c r="I9" s="8">
-        <v>17896.150000000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="5">
+      <c r="B9" s="7">
+        <v>15267.68</v>
+      </c>
+      <c r="C9" s="9">
+        <v>15734.13</v>
+      </c>
+      <c r="D9" s="9">
+        <v>15155.99</v>
+      </c>
+      <c r="E9" s="9">
+        <v>15639.84</v>
+      </c>
+      <c r="F9" s="9">
+        <v>14564.12</v>
+      </c>
+      <c r="G9" s="9">
+        <v>15036.94</v>
+      </c>
+      <c r="H9" s="9">
+        <v>14481.84</v>
+      </c>
+      <c r="I9" s="9">
+        <v>14922.01</v>
+      </c>
+    </row>
+    <row r="10" ht="20.05" customHeight="1">
+      <c r="A10" s="6">
         <v>6</v>
       </c>
-      <c r="B10" s="6">
-        <v>22363.34</v>
-      </c>
-      <c r="C10" s="8">
-        <v>22450.74</v>
-      </c>
-      <c r="D10" s="8">
-        <v>22698.13</v>
-      </c>
-      <c r="E10" s="8">
-        <v>22404.28</v>
-      </c>
-      <c r="F10" s="8">
-        <v>18036.91</v>
-      </c>
-      <c r="G10" s="8">
-        <v>17995.61</v>
-      </c>
-      <c r="H10" s="8">
-        <v>18056.560000000001</v>
-      </c>
-      <c r="I10" s="8">
-        <v>18539.169999999998</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="5">
+      <c r="B10" s="7">
+        <v>15296.34</v>
+      </c>
+      <c r="C10" s="9">
+        <v>15761.25</v>
+      </c>
+      <c r="D10" s="9">
+        <v>15186.97</v>
+      </c>
+      <c r="E10" s="9">
+        <v>15672.44</v>
+      </c>
+      <c r="F10" s="9">
+        <v>14618.95</v>
+      </c>
+      <c r="G10" s="9">
+        <v>15080.46</v>
+      </c>
+      <c r="H10" s="9">
+        <v>14523.53</v>
+      </c>
+      <c r="I10" s="9">
+        <v>14988.24</v>
+      </c>
+    </row>
+    <row r="11" ht="20.05" customHeight="1">
+      <c r="A11" s="6">
         <v>7</v>
       </c>
-      <c r="B11" s="6">
-        <v>22628.71</v>
-      </c>
-      <c r="C11" s="8">
-        <v>22411.73</v>
-      </c>
-      <c r="D11" s="8">
-        <v>22540.12</v>
-      </c>
-      <c r="E11" s="8">
-        <v>22351.54</v>
-      </c>
-      <c r="F11" s="8">
-        <v>17968.95</v>
-      </c>
-      <c r="G11" s="8">
-        <v>18082.11</v>
-      </c>
-      <c r="H11" s="8">
-        <v>18248.16</v>
-      </c>
-      <c r="I11" s="8">
-        <v>17849.91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="5">
+      <c r="B11" s="7">
+        <v>15279.96</v>
+      </c>
+      <c r="C11" s="9">
+        <v>15738.9</v>
+      </c>
+      <c r="D11" s="9">
+        <v>15182.5</v>
+      </c>
+      <c r="E11" s="9">
+        <v>15643.16</v>
+      </c>
+      <c r="F11" s="9">
+        <v>14604.22</v>
+      </c>
+      <c r="G11" s="9">
+        <v>15062.62</v>
+      </c>
+      <c r="H11" s="9">
+        <v>14514.89</v>
+      </c>
+      <c r="I11" s="9">
+        <v>14964.71</v>
+      </c>
+    </row>
+    <row r="12" ht="20.05" customHeight="1">
+      <c r="A12" s="6">
         <v>8</v>
       </c>
-      <c r="B12" s="6">
-        <v>22803.31</v>
-      </c>
-      <c r="C12" s="8">
-        <v>22698.13</v>
-      </c>
-      <c r="D12" s="8">
-        <v>22853.24</v>
-      </c>
-      <c r="E12" s="8">
-        <v>23189.27</v>
-      </c>
-      <c r="F12" s="8">
-        <v>18297.73</v>
-      </c>
-      <c r="G12" s="8">
-        <v>18682.150000000001</v>
-      </c>
-      <c r="H12" s="8">
-        <v>18693.59</v>
-      </c>
-      <c r="I12" s="8">
-        <v>18622.47</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="5">
+      <c r="B12" s="7">
+        <v>15333.9</v>
+      </c>
+      <c r="C12" s="9">
+        <v>15780.79</v>
+      </c>
+      <c r="D12" s="9">
+        <v>15213.16</v>
+      </c>
+      <c r="E12" s="9">
+        <v>15676.93</v>
+      </c>
+      <c r="F12" s="9">
+        <v>14629.9</v>
+      </c>
+      <c r="G12" s="9">
+        <v>15083.34</v>
+      </c>
+      <c r="H12" s="9">
+        <v>14520.18</v>
+      </c>
+      <c r="I12" s="9">
+        <v>14989.24</v>
+      </c>
+    </row>
+    <row r="13" ht="20.05" customHeight="1">
+      <c r="A13" s="6">
         <v>9</v>
       </c>
-      <c r="B13" s="6">
-        <v>22085.25</v>
-      </c>
-      <c r="C13" s="8">
-        <v>22508.36</v>
-      </c>
-      <c r="D13" s="8">
-        <v>22537.599999999999</v>
-      </c>
-      <c r="E13" s="8">
-        <v>22299.23</v>
-      </c>
-      <c r="F13" s="8">
-        <v>17852.37</v>
-      </c>
-      <c r="G13" s="8">
-        <v>18113.54</v>
-      </c>
-      <c r="H13" s="8">
-        <v>17791.97</v>
-      </c>
-      <c r="I13" s="8">
-        <v>17839.3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="5">
+      <c r="B13" s="7">
+        <v>15215.33</v>
+      </c>
+      <c r="C13" s="9">
+        <v>15658.46</v>
+      </c>
+      <c r="D13" s="9">
+        <v>15117.22</v>
+      </c>
+      <c r="E13" s="9">
+        <v>15579.44</v>
+      </c>
+      <c r="F13" s="9">
+        <v>14526.14</v>
+      </c>
+      <c r="G13" s="9">
+        <v>14981</v>
+      </c>
+      <c r="H13" s="9">
+        <v>14408.3</v>
+      </c>
+      <c r="I13" s="9">
+        <v>14872.87</v>
+      </c>
+    </row>
+    <row r="14" ht="20.05" customHeight="1">
+      <c r="A14" s="6">
         <v>10</v>
       </c>
-      <c r="B14" s="6">
-        <v>22904.65</v>
-      </c>
-      <c r="C14" s="8">
-        <v>22384.06</v>
-      </c>
-      <c r="D14" s="8">
-        <v>22807.3</v>
-      </c>
-      <c r="E14" s="8">
-        <v>22345.85</v>
-      </c>
-      <c r="F14" s="8">
-        <v>17720.509999999998</v>
-      </c>
-      <c r="G14" s="8">
-        <v>17998.97</v>
-      </c>
-      <c r="H14" s="8">
-        <v>17961.240000000002</v>
-      </c>
-      <c r="I14" s="8">
-        <v>18086.830000000002</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="5">
+      <c r="B14" s="7">
+        <v>15262.92</v>
+      </c>
+      <c r="C14" s="9">
+        <v>15717.87</v>
+      </c>
+      <c r="D14" s="9">
+        <v>15160.49</v>
+      </c>
+      <c r="E14" s="9">
+        <v>15613.19</v>
+      </c>
+      <c r="F14" s="9">
+        <v>14585.61</v>
+      </c>
+      <c r="G14" s="9">
+        <v>15047.79</v>
+      </c>
+      <c r="H14" s="9">
+        <v>14496.42</v>
+      </c>
+      <c r="I14" s="9">
+        <v>14954.64</v>
+      </c>
+    </row>
+    <row r="15" ht="20.05" customHeight="1">
+      <c r="A15" s="6">
         <v>11</v>
       </c>
-      <c r="B15" s="6">
-        <v>22177.48</v>
-      </c>
-      <c r="C15" s="8">
-        <v>22539.9</v>
-      </c>
-      <c r="D15" s="8">
-        <v>22181.01</v>
-      </c>
-      <c r="E15" s="8">
-        <v>22352.5</v>
-      </c>
-      <c r="F15" s="8">
-        <v>17733.150000000001</v>
-      </c>
-      <c r="G15" s="8">
-        <v>18054.07</v>
-      </c>
-      <c r="H15" s="8">
-        <v>17862.28</v>
-      </c>
-      <c r="I15" s="8">
-        <v>18252.72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="5">
+      <c r="B15" s="7">
+        <v>15272.39</v>
+      </c>
+      <c r="C15" s="9">
+        <v>15733.79</v>
+      </c>
+      <c r="D15" s="9">
+        <v>15167.48</v>
+      </c>
+      <c r="E15" s="9">
+        <v>15638.61</v>
+      </c>
+      <c r="F15" s="9">
+        <v>14586.82</v>
+      </c>
+      <c r="G15" s="9">
+        <v>15040.86</v>
+      </c>
+      <c r="H15" s="9">
+        <v>14487.66</v>
+      </c>
+      <c r="I15" s="9">
+        <v>14956.8</v>
+      </c>
+    </row>
+    <row r="16" ht="20.05" customHeight="1">
+      <c r="A16" s="6">
         <v>12</v>
       </c>
-      <c r="B16" s="6">
-        <v>22133.05</v>
-      </c>
-      <c r="C16" s="8">
-        <v>22502.55</v>
-      </c>
-      <c r="D16" s="8">
-        <v>22203.97</v>
-      </c>
-      <c r="E16" s="8">
-        <v>22436.21</v>
-      </c>
-      <c r="F16" s="8">
-        <v>17873.150000000001</v>
-      </c>
-      <c r="G16" s="8">
-        <v>17733.12</v>
-      </c>
-      <c r="H16" s="8">
-        <v>18008.060000000001</v>
-      </c>
-      <c r="I16" s="8">
-        <v>18166.53</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="5">
+      <c r="B16" s="7">
+        <v>15279.69</v>
+      </c>
+      <c r="C16" s="9">
+        <v>15734.84</v>
+      </c>
+      <c r="D16" s="9">
+        <v>15167.07</v>
+      </c>
+      <c r="E16" s="9">
+        <v>15635.41</v>
+      </c>
+      <c r="F16" s="9">
+        <v>14592.92</v>
+      </c>
+      <c r="G16" s="9">
+        <v>15052.02</v>
+      </c>
+      <c r="H16" s="9">
+        <v>14479.94</v>
+      </c>
+      <c r="I16" s="9">
+        <v>14955.75</v>
+      </c>
+    </row>
+    <row r="17" ht="20.05" customHeight="1">
+      <c r="A17" s="6">
         <v>13</v>
       </c>
-      <c r="B17" s="6">
-        <v>22352.65</v>
-      </c>
-      <c r="C17" s="8">
-        <v>22194.5</v>
-      </c>
-      <c r="D17" s="8">
-        <v>22410.23</v>
-      </c>
-      <c r="E17" s="8">
-        <v>22117.01</v>
-      </c>
-      <c r="F17" s="8">
-        <v>18270.990000000002</v>
-      </c>
-      <c r="G17" s="8">
-        <v>17968.88</v>
-      </c>
-      <c r="H17" s="8">
-        <v>18175.59</v>
-      </c>
-      <c r="I17" s="8">
-        <v>18415.12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="5">
+      <c r="B17" s="7">
+        <v>15326.39</v>
+      </c>
+      <c r="C17" s="9">
+        <v>15783.39</v>
+      </c>
+      <c r="D17" s="9">
+        <v>15209.19</v>
+      </c>
+      <c r="E17" s="9">
+        <v>15675.86</v>
+      </c>
+      <c r="F17" s="9">
+        <v>14612.45</v>
+      </c>
+      <c r="G17" s="9">
+        <v>15083.97</v>
+      </c>
+      <c r="H17" s="9">
+        <v>14525.94</v>
+      </c>
+      <c r="I17" s="9">
+        <v>14976.81</v>
+      </c>
+    </row>
+    <row r="18" ht="20.05" customHeight="1">
+      <c r="A18" s="6">
         <v>14</v>
       </c>
-      <c r="B18" s="6">
-        <v>22751.13</v>
-      </c>
-      <c r="C18" s="8">
-        <v>22215.35</v>
-      </c>
-      <c r="D18" s="8">
-        <v>22315.01</v>
-      </c>
-      <c r="E18" s="8">
-        <v>22389.99</v>
-      </c>
-      <c r="F18" s="8">
-        <v>17988.79</v>
-      </c>
-      <c r="G18" s="8">
-        <v>18225.52</v>
-      </c>
-      <c r="H18" s="8">
-        <v>18315.38</v>
-      </c>
-      <c r="I18" s="8">
-        <v>18229.849999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="5">
+      <c r="B18" s="7">
+        <v>15228.66</v>
+      </c>
+      <c r="C18" s="9">
+        <v>15691.66</v>
+      </c>
+      <c r="D18" s="9">
+        <v>15123.17</v>
+      </c>
+      <c r="E18" s="9">
+        <v>15607.68</v>
+      </c>
+      <c r="F18" s="9">
+        <v>14552.12</v>
+      </c>
+      <c r="G18" s="9">
+        <v>15027.35</v>
+      </c>
+      <c r="H18" s="9">
+        <v>14453.65</v>
+      </c>
+      <c r="I18" s="9">
+        <v>14922.32</v>
+      </c>
+    </row>
+    <row r="19" ht="20.05" customHeight="1">
+      <c r="A19" s="6">
         <v>15</v>
       </c>
-      <c r="B19" s="6">
-        <v>22500.959999999999</v>
-      </c>
-      <c r="C19" s="8">
-        <v>22806.02</v>
-      </c>
-      <c r="D19" s="8">
-        <v>22434.39</v>
-      </c>
-      <c r="E19" s="8">
-        <v>22405.919999999998</v>
-      </c>
-      <c r="F19" s="8">
-        <v>17765.349999999999</v>
-      </c>
-      <c r="G19" s="8">
-        <v>17974.330000000002</v>
-      </c>
-      <c r="H19" s="8">
-        <v>18276.54</v>
-      </c>
-      <c r="I19" s="8">
-        <v>17717.07</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="5">
+      <c r="B19" s="7">
+        <v>15319.1</v>
+      </c>
+      <c r="C19" s="9">
+        <v>15792.49</v>
+      </c>
+      <c r="D19" s="9">
+        <v>15227.37</v>
+      </c>
+      <c r="E19" s="9">
+        <v>15688.04</v>
+      </c>
+      <c r="F19" s="9">
+        <v>14633.45</v>
+      </c>
+      <c r="G19" s="9">
+        <v>15091.92</v>
+      </c>
+      <c r="H19" s="9">
+        <v>14525.12</v>
+      </c>
+      <c r="I19" s="9">
+        <v>14980.26</v>
+      </c>
+    </row>
+    <row r="20" ht="20.05" customHeight="1">
+      <c r="A20" s="6">
         <v>16</v>
       </c>
-      <c r="B20" s="6">
-        <v>22471.49</v>
-      </c>
-      <c r="C20" s="8">
-        <v>22365.08</v>
-      </c>
-      <c r="D20" s="8">
-        <v>22586.18</v>
-      </c>
-      <c r="E20" s="8">
-        <v>22378.91</v>
-      </c>
-      <c r="F20" s="8">
-        <v>17966.54</v>
-      </c>
-      <c r="G20" s="8">
-        <v>17790.240000000002</v>
-      </c>
-      <c r="H20" s="8">
-        <v>17697.39</v>
-      </c>
-      <c r="I20" s="8">
-        <v>17891.39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="2" t="s">
+      <c r="B20" s="7">
+        <v>15328.64</v>
+      </c>
+      <c r="C20" s="9">
+        <v>15787.54</v>
+      </c>
+      <c r="D20" s="9">
+        <v>15228.46</v>
+      </c>
+      <c r="E20" s="9">
+        <v>15688.37</v>
+      </c>
+      <c r="F20" s="9">
+        <v>14668.43</v>
+      </c>
+      <c r="G20" s="9">
+        <v>15133.87</v>
+      </c>
+      <c r="H20" s="9">
+        <v>14559.99</v>
+      </c>
+      <c r="I20" s="9">
+        <v>15019.22</v>
+      </c>
+    </row>
+    <row r="21" ht="20.05" customHeight="1">
+      <c r="A21" t="s" s="3">
         <v>6</v>
       </c>
-      <c r="B21" s="6">
-        <f t="shared" ref="B21:I21" si="0">AVERAGE(B2:B20)</f>
-        <v>22490.624375000003</v>
-      </c>
-      <c r="C21" s="7">
-        <f t="shared" si="0"/>
-        <v>22549.703750000004</v>
-      </c>
-      <c r="D21" s="7">
-        <f t="shared" si="0"/>
-        <v>22547.745625</v>
-      </c>
-      <c r="E21" s="7">
-        <f t="shared" si="0"/>
-        <v>22518.351874999997</v>
-      </c>
-      <c r="F21" s="7">
-        <f t="shared" si="0"/>
-        <v>18010.929999999997</v>
-      </c>
-      <c r="G21" s="7">
-        <f t="shared" si="0"/>
-        <v>18118.810625000002</v>
-      </c>
-      <c r="H21" s="7">
-        <f t="shared" si="0"/>
-        <v>18074.834999999999</v>
-      </c>
-      <c r="I21" s="7">
-        <f t="shared" si="0"/>
-        <v>18124.532500000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="2" t="s">
+      <c r="B21" s="7">
+        <f>AVERAGE(B2:B20)</f>
+        <v>15277.28625</v>
+      </c>
+      <c r="C21" s="8">
+        <f>AVERAGE(C2:C20)</f>
+        <v>15736.63875</v>
+      </c>
+      <c r="D21" s="8">
+        <f>AVERAGE(D2:D20)</f>
+        <v>15174.585</v>
+      </c>
+      <c r="E21" s="8">
+        <f>AVERAGE(E2:E20)</f>
+        <v>15640.328125</v>
+      </c>
+      <c r="F21" s="8">
+        <f>AVERAGE(F2:F20)</f>
+        <v>14588.873125</v>
+      </c>
+      <c r="G21" s="8">
+        <f>AVERAGE(G2:G20)</f>
+        <v>15051.8725</v>
+      </c>
+      <c r="H21" s="8">
+        <f>AVERAGE(H2:H20)</f>
+        <v>14489.599375</v>
+      </c>
+      <c r="I21" s="8">
+        <f>AVERAGE(I2:I20)</f>
+        <v>14952.225625</v>
+      </c>
+    </row>
+    <row r="22" ht="20.05" customHeight="1">
+      <c r="A22" t="s" s="3">
         <v>7</v>
       </c>
-      <c r="B22" s="6">
-        <f t="shared" ref="B22:I22" si="1">(16/15)*(MAX(B5:B20)-B21)^2</f>
-        <v>213955.85926041528</v>
-      </c>
-      <c r="C22" s="7">
+      <c r="B22" s="7">
+        <f>(16/15)*(MAX(B5:B20)-B21)^2</f>
+        <v>3418.791135</v>
+      </c>
+      <c r="C22" s="9">
         <f>(16/15)*(MAX(C5:C20)-C21)^2</f>
-        <v>239802.31081499427</v>
-      </c>
-      <c r="D22" s="7">
+        <v>3327.319601666670</v>
+      </c>
+      <c r="D22" s="9">
         <f>(16/15)*(MAX(D5:D20)-D21)^2</f>
-        <v>628071.88250041765</v>
-      </c>
-      <c r="E22" s="7">
+        <v>3096.016666666670</v>
+      </c>
+      <c r="E22" s="9">
         <f>(16/15)*(MAX(E5:E20)-E21)^2</f>
-        <v>480139.8724837554</v>
-      </c>
-      <c r="F22" s="7">
+        <v>2582.21280375</v>
+      </c>
+      <c r="F22" s="9">
         <f>(16/15)*(MAX(F5:F20)-F21)^2</f>
-        <v>796926.09024000773</v>
-      </c>
-      <c r="G22" s="7">
+        <v>6751.249450416670</v>
+      </c>
+      <c r="G22" s="9">
         <f>(16/15)*(MAX(G5:G20)-G21)^2</f>
-        <v>489172.25973374496</v>
-      </c>
-      <c r="H22" s="7">
+        <v>7171.82934</v>
+      </c>
+      <c r="H22" s="9">
         <f>(16/15)*(MAX(H5:H20)-H21)^2</f>
-        <v>408381.60002666799</v>
-      </c>
-      <c r="I22" s="7">
+        <v>5285.162760416670</v>
+      </c>
+      <c r="I22" s="9">
         <f>(16/15)*(MAX(I5:I20)-I21)^2</f>
-        <v>264471.20416666666</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="2" t="s">
+        <v>4787.462700416670</v>
+      </c>
+    </row>
+    <row r="23" ht="20.05" customHeight="1">
+      <c r="A23" t="s" s="3">
         <v>8</v>
       </c>
-      <c r="B23" s="6">
-        <f t="shared" ref="B23:I23" si="2">4*B20/16</f>
-        <v>5617.8725000000004</v>
-      </c>
-      <c r="C23" s="8">
-        <f t="shared" si="2"/>
-        <v>5591.27</v>
-      </c>
-      <c r="D23" s="8">
-        <f t="shared" si="2"/>
-        <v>5646.5450000000001</v>
-      </c>
-      <c r="E23" s="8">
-        <f t="shared" si="2"/>
-        <v>5594.7275</v>
-      </c>
-      <c r="F23" s="8">
-        <f t="shared" si="2"/>
-        <v>4491.6350000000002</v>
-      </c>
-      <c r="G23" s="8">
-        <f t="shared" si="2"/>
-        <v>4447.5600000000004</v>
-      </c>
-      <c r="H23" s="8">
-        <f t="shared" si="2"/>
-        <v>4424.3474999999999</v>
-      </c>
-      <c r="I23" s="8">
-        <f t="shared" si="2"/>
-        <v>4472.8474999999999</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="2" t="s">
+      <c r="B23" s="7">
+        <f>4*B20/16</f>
+        <v>3832.16</v>
+      </c>
+      <c r="C23" s="9">
+        <f>4*C20/16</f>
+        <v>3946.885</v>
+      </c>
+      <c r="D23" s="9">
+        <f>4*D20/16</f>
+        <v>3807.115</v>
+      </c>
+      <c r="E23" s="9">
+        <f>4*E20/16</f>
+        <v>3922.0925</v>
+      </c>
+      <c r="F23" s="9">
+        <f>4*F20/16</f>
+        <v>3667.1075</v>
+      </c>
+      <c r="G23" s="9">
+        <f>4*G20/16</f>
+        <v>3783.4675</v>
+      </c>
+      <c r="H23" s="9">
+        <f>4*H20/16</f>
+        <v>3639.9975</v>
+      </c>
+      <c r="I23" s="9">
+        <f>4*I20/16</f>
+        <v>3754.805</v>
+      </c>
+    </row>
+    <row r="24" ht="20.05" customHeight="1">
+      <c r="A24" t="s" s="3">
         <v>9</v>
       </c>
-      <c r="B24" s="6">
-        <f t="shared" ref="B24:I24" si="3">$B$29*SQRT(B22/16)</f>
-        <v>245.15342311754625</v>
-      </c>
-      <c r="C24" s="7">
-        <f t="shared" si="3"/>
-        <v>259.53895489489025</v>
-      </c>
-      <c r="D24" s="7">
-        <f t="shared" si="3"/>
-        <v>420.03022723890638</v>
-      </c>
-      <c r="E24" s="7">
-        <f t="shared" si="3"/>
-        <v>367.24826777084587</v>
-      </c>
-      <c r="F24" s="7">
-        <f t="shared" si="3"/>
-        <v>473.13479976473741</v>
-      </c>
-      <c r="G24" s="7">
-        <f t="shared" si="3"/>
-        <v>370.68650873643753</v>
-      </c>
-      <c r="H24" s="7">
-        <f t="shared" si="3"/>
-        <v>338.69513053407047</v>
-      </c>
-      <c r="I24" s="7">
-        <f t="shared" si="3"/>
-        <v>272.56184848657136</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="2" t="s">
+      <c r="B24" s="7">
+        <f>$B$29*SQRT(B22/16)</f>
+        <v>30.9893276761775</v>
+      </c>
+      <c r="C24" s="8">
+        <f>$B$29*SQRT(C22/16)</f>
+        <v>30.5719491709012</v>
+      </c>
+      <c r="D24" s="8">
+        <f>$B$29*SQRT(D22/16)</f>
+        <v>29.490186192472</v>
+      </c>
+      <c r="E24" s="8">
+        <f>$B$29*SQRT(E22/16)</f>
+        <v>26.9322033367746</v>
+      </c>
+      <c r="F24" s="8">
+        <f>$B$29*SQRT(F22/16)</f>
+        <v>43.5479732091178</v>
+      </c>
+      <c r="G24" s="8">
+        <f>$B$29*SQRT(G22/16)</f>
+        <v>44.8839265395308</v>
+      </c>
+      <c r="H24" s="8">
+        <f>$B$29*SQRT(H22/16)</f>
+        <v>38.5305361940506</v>
+      </c>
+      <c r="I24" s="8">
+        <f>$B$29*SQRT(I22/16)</f>
+        <v>36.6714912779265</v>
+      </c>
+    </row>
+    <row r="25" ht="20.05" customHeight="1">
+      <c r="A25" t="s" s="3">
         <v>10</v>
       </c>
-      <c r="B25" s="6">
-        <f t="shared" ref="B25:I25" si="4">B21*0.05</f>
-        <v>1124.5312187500001</v>
-      </c>
-      <c r="C25" s="7">
-        <f t="shared" si="4"/>
-        <v>1127.4851875000002</v>
-      </c>
-      <c r="D25" s="7">
-        <f t="shared" si="4"/>
-        <v>1127.3872812500001</v>
-      </c>
-      <c r="E25" s="7">
-        <f t="shared" si="4"/>
-        <v>1125.9175937499999</v>
-      </c>
-      <c r="F25" s="7">
-        <f t="shared" si="4"/>
-        <v>900.54649999999992</v>
-      </c>
-      <c r="G25" s="7">
-        <f t="shared" si="4"/>
-        <v>905.94053125000016</v>
-      </c>
-      <c r="H25" s="7">
-        <f t="shared" si="4"/>
-        <v>903.74175000000002</v>
-      </c>
-      <c r="I25" s="7">
-        <f t="shared" si="4"/>
-        <v>906.22662500000013</v>
-      </c>
-    </row>
-    <row r="26" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="2" t="s">
+      <c r="B25" s="7">
+        <f>B21*0.05</f>
+        <v>763.8643125</v>
+      </c>
+      <c r="C25" s="8">
+        <f>C21*0.05</f>
+        <v>786.8319375</v>
+      </c>
+      <c r="D25" s="8">
+        <f>D21*0.05</f>
+        <v>758.72925</v>
+      </c>
+      <c r="E25" s="8">
+        <f>E21*0.05</f>
+        <v>782.01640625</v>
+      </c>
+      <c r="F25" s="8">
+        <f>F21*0.05</f>
+        <v>729.44365625</v>
+      </c>
+      <c r="G25" s="8">
+        <f>G21*0.05</f>
+        <v>752.593625</v>
+      </c>
+      <c r="H25" s="8">
+        <f>H21*0.05</f>
+        <v>724.47996875</v>
+      </c>
+      <c r="I25" s="8">
+        <f>I21*0.05</f>
+        <v>747.61128125</v>
+      </c>
+    </row>
+    <row r="26" ht="20.05" customHeight="1">
+      <c r="A26" t="s" s="3">
         <v>11</v>
       </c>
-      <c r="B26" s="6">
-        <f t="shared" ref="B26:I26" si="5">16*(B24/B25)^2</f>
-        <v>0.76041884797960768</v>
-      </c>
-      <c r="C26" s="7">
-        <f t="shared" si="5"/>
-        <v>0.84781948923864492</v>
-      </c>
-      <c r="D26" s="7">
-        <f t="shared" si="5"/>
-        <v>2.2209296970121524</v>
-      </c>
-      <c r="E26" s="7">
-        <f t="shared" si="5"/>
-        <v>1.7022615264507923</v>
-      </c>
-      <c r="F26" s="7">
-        <f t="shared" si="5"/>
-        <v>4.4164923424911642</v>
-      </c>
-      <c r="G26" s="7">
-        <f t="shared" si="5"/>
-        <v>2.6787622022632767</v>
-      </c>
-      <c r="H26" s="7">
-        <f t="shared" si="5"/>
-        <v>2.2472386553477035</v>
-      </c>
-      <c r="I26" s="7">
-        <f t="shared" si="5"/>
-        <v>1.4473597105478064</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="9"/>
-      <c r="B27" s="10"/>
-      <c r="C27" s="11"/>
-      <c r="D27" s="11"/>
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-    </row>
-    <row r="28" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="9"/>
-      <c r="B28" s="10"/>
-      <c r="C28" s="11"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-    </row>
-    <row r="29" spans="1:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="2" t="s">
+      <c r="B26" s="7">
+        <f>16*(B24/B25)^2</f>
+        <v>0.0263336979713395</v>
+      </c>
+      <c r="C26" s="8">
+        <f>16*(C24/C25)^2</f>
+        <v>0.0241547352170436</v>
+      </c>
+      <c r="D26" s="8">
+        <f>16*(D24/D25)^2</f>
+        <v>0.024171375090787</v>
+      </c>
+      <c r="E26" s="8">
+        <f>16*(E24/E25)^2</f>
+        <v>0.0189771951339597</v>
+      </c>
+      <c r="F26" s="8">
+        <f>16*(F24/F25)^2</f>
+        <v>0.0570259295700059</v>
+      </c>
+      <c r="G26" s="8">
+        <f>16*(G24/G25)^2</f>
+        <v>0.0569089533143655</v>
+      </c>
+      <c r="H26" s="8">
+        <f>16*(H24/H25)^2</f>
+        <v>0.0452561206893861</v>
+      </c>
+      <c r="I26" s="8">
+        <f>16*(I24/I25)^2</f>
+        <v>0.0384968711025954</v>
+      </c>
+    </row>
+    <row r="27" ht="20.05" customHeight="1">
+      <c r="A27" s="10"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="12"/>
+      <c r="D27" s="12"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
+      <c r="G27" s="12"/>
+      <c r="H27" s="12"/>
+      <c r="I27" s="12"/>
+    </row>
+    <row r="28" ht="20.05" customHeight="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+    </row>
+    <row r="29" ht="20.05" customHeight="1">
+      <c r="A29" t="s" s="3">
         <v>12</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="7">
         <v>2.12</v>
       </c>
-      <c r="C29" s="11"/>
-      <c r="D29" s="11"/>
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-    </row>
-    <row r="31" spans="1:18" ht="27.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J31" s="18" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+    </row>
+    <row r="31" ht="27.65" customHeight="1">
+      <c r="J31" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="O31" s="18"/>
-      <c r="P31" s="18"/>
-      <c r="Q31" s="18"/>
-      <c r="R31" s="18"/>
-    </row>
-    <row r="32" spans="1:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J32" s="12" t="s">
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+    </row>
+    <row r="32" ht="20.25" customHeight="1">
+      <c r="J32" t="s" s="14">
         <v>1</v>
       </c>
-      <c r="K32" s="12" t="s">
+      <c r="K32" t="s" s="14">
         <v>4</v>
       </c>
-      <c r="L32" s="12" t="s">
+      <c r="L32" t="s" s="14">
         <v>5</v>
       </c>
-      <c r="M32" s="12" t="s">
+      <c r="M32" t="s" s="14">
         <v>6</v>
       </c>
-      <c r="N32" s="13"/>
-      <c r="O32" s="13"/>
-      <c r="P32" s="13"/>
-      <c r="Q32" s="12" t="s">
+      <c r="N32" s="15"/>
+      <c r="O32" s="15"/>
+      <c r="P32" s="15"/>
+      <c r="Q32" t="s" s="14">
         <v>14</v>
       </c>
-      <c r="R32" s="12" t="s">
+      <c r="R32" t="s" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="10:18" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J33" s="14" t="s">
+    <row r="33" ht="20.25" customHeight="1">
+      <c r="J33" t="s" s="16">
         <v>2</v>
       </c>
-      <c r="K33" s="14" t="s">
+      <c r="K33" t="s" s="16">
         <v>2</v>
       </c>
-      <c r="L33" s="15" t="s">
+      <c r="L33" t="s" s="17">
         <v>2</v>
       </c>
-      <c r="M33" s="16">
-        <v>22490.624374999999</v>
-      </c>
-      <c r="N33" s="17">
+      <c r="M33" s="18">
+        <f>B21</f>
+        <v>15277.28625</v>
+      </c>
+      <c r="N33" s="19">
         <f>M33+M34</f>
-        <v>45040.328125</v>
-      </c>
-      <c r="O33" s="17">
+        <v>31013.925</v>
+      </c>
+      <c r="O33" s="19">
         <f>N33+N34</f>
-        <v>90106.425625000003</v>
-      </c>
-      <c r="P33" s="17">
+        <v>61828.838125</v>
+      </c>
+      <c r="P33" s="19">
         <f>O33+O34</f>
-        <v>162435.53375</v>
-      </c>
-      <c r="Q33" s="17">
+        <v>120911.40875</v>
+      </c>
+      <c r="Q33" s="19">
         <f>P33/8</f>
-        <v>20304.44171875</v>
-      </c>
-      <c r="R33" s="14" t="s">
+        <v>15113.92609375</v>
+      </c>
+      <c r="R33" t="s" s="16">
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="10:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J34" s="4" t="s">
+    <row r="34" ht="20.05" customHeight="1">
+      <c r="J34" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="K34" s="4" t="s">
+      <c r="K34" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="L34" s="4" t="s">
+      <c r="L34" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="M34" s="7">
-        <v>22549.703750000001</v>
-      </c>
-      <c r="N34" s="7">
+      <c r="M34" s="8">
+        <f>C21</f>
+        <v>15736.63875</v>
+      </c>
+      <c r="N34" s="8">
         <f>M35+M36</f>
-        <v>45066.097500000003</v>
-      </c>
-      <c r="O34" s="7">
+        <v>30814.913125</v>
+      </c>
+      <c r="O34" s="8">
         <f>N35+N36</f>
-        <v>72329.108124999999</v>
-      </c>
-      <c r="P34" s="7">
+        <v>59082.570625</v>
+      </c>
+      <c r="P34" s="8">
         <f>O35+O36</f>
-        <v>187.26375000000189</v>
-      </c>
-      <c r="Q34" s="7">
-        <f t="shared" ref="Q34:Q40" si="6">P34/4</f>
-        <v>46.815937500000473</v>
-      </c>
-      <c r="R34" s="4" t="s">
+        <v>1850.72125</v>
+      </c>
+      <c r="Q34" s="8">
+        <f>P34/4</f>
+        <v>462.6803125</v>
+      </c>
+      <c r="R34" t="s" s="5">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="10:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J35" s="4" t="s">
+    <row r="35" ht="20.05" customHeight="1">
+      <c r="J35" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="K35" s="4" t="s">
+      <c r="K35" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="L35" s="4" t="s">
+      <c r="L35" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="M35" s="7">
-        <v>22547.745625</v>
-      </c>
-      <c r="N35" s="7">
+      <c r="M35" s="8">
+        <f>D21</f>
+        <v>15174.585</v>
+      </c>
+      <c r="N35" s="8">
         <f>M37+M38</f>
-        <v>36129.740624999999</v>
-      </c>
-      <c r="O35" s="7">
+        <v>29640.745625</v>
+      </c>
+      <c r="O35" s="8">
         <f>N37+N38</f>
-        <v>29.685625000001892</v>
-      </c>
-      <c r="P35" s="7">
+        <v>925.095625</v>
+      </c>
+      <c r="P35" s="8">
         <f>O37+O38</f>
-        <v>95.396250000005239</v>
-      </c>
-      <c r="Q35" s="7">
-        <f t="shared" si="6"/>
-        <v>23.84906250000131</v>
-      </c>
-      <c r="R35" s="4" t="s">
+        <v>-397.9325</v>
+      </c>
+      <c r="Q35" s="8">
+        <f>P35/4</f>
+        <v>-99.483125</v>
+      </c>
+      <c r="R35" t="s" s="5">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="10:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J36" s="4" t="s">
+    <row r="36" ht="20.05" customHeight="1">
+      <c r="J36" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="K36" s="4" t="s">
+      <c r="K36" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="L36" s="4" t="s">
+      <c r="L36" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="M36" s="7">
-        <v>22518.351875</v>
-      </c>
-      <c r="N36" s="7">
+      <c r="M36" s="8">
+        <f>E21</f>
+        <v>15640.328125</v>
+      </c>
+      <c r="N36" s="8">
         <f>M39+M40</f>
-        <v>36199.3675</v>
-      </c>
-      <c r="O36" s="7">
+        <v>29441.825</v>
+      </c>
+      <c r="O36" s="8">
         <f>N39+N40</f>
-        <v>157.578125</v>
-      </c>
-      <c r="P36" s="7">
+        <v>925.625625</v>
+      </c>
+      <c r="P36" s="8">
         <f>O39+O40</f>
-        <v>-146.65624999999636</v>
-      </c>
-      <c r="Q36" s="7">
-        <f t="shared" si="6"/>
-        <v>-36.664062499999091</v>
-      </c>
-      <c r="R36" s="4" t="s">
+        <v>6.0175</v>
+      </c>
+      <c r="Q36" s="8">
+        <f>P36/4</f>
+        <v>1.504375</v>
+      </c>
+      <c r="R36" t="s" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="10:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J37" s="4" t="s">
+    <row r="37" ht="20.05" customHeight="1">
+      <c r="J37" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="K37" s="4" t="s">
+      <c r="K37" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="L37" s="4" t="s">
+      <c r="L37" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="M37" s="7">
-        <v>18010.93</v>
-      </c>
-      <c r="N37" s="7">
+      <c r="M37" s="8">
+        <f>F21</f>
+        <v>14588.873125</v>
+      </c>
+      <c r="N37" s="8">
         <f>M34-M33</f>
-        <v>59.079375000001164</v>
-      </c>
-      <c r="O37" s="7">
+        <v>459.3525</v>
+      </c>
+      <c r="O37" s="8">
         <f>N34-N33</f>
-        <v>25.769375000003492</v>
-      </c>
-      <c r="P37" s="7">
+        <v>-199.011875</v>
+      </c>
+      <c r="P37" s="8">
         <f>O34-O33</f>
-        <v>-17777.317500000005</v>
-      </c>
-      <c r="Q37" s="7">
-        <f t="shared" si="6"/>
-        <v>-4444.3293750000012</v>
-      </c>
-      <c r="R37" s="4" t="s">
+        <v>-2746.2675</v>
+      </c>
+      <c r="Q37" s="8">
+        <f>P37/4</f>
+        <v>-686.566875</v>
+      </c>
+      <c r="R37" t="s" s="5">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="10:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J38" s="4" t="s">
+    <row r="38" ht="20.05" customHeight="1">
+      <c r="J38" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="K38" s="4" t="s">
+      <c r="K38" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="L38" s="4" t="s">
+      <c r="L38" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="M38" s="7">
-        <v>18118.810624999998</v>
-      </c>
-      <c r="N38" s="7">
+      <c r="M38" s="8">
+        <f>G21</f>
+        <v>15051.8725</v>
+      </c>
+      <c r="N38" s="8">
         <f>M36-M35</f>
-        <v>-29.393749999999272</v>
-      </c>
-      <c r="O38" s="7">
+        <v>465.743125</v>
+      </c>
+      <c r="O38" s="8">
         <f>N36-N35</f>
-        <v>69.626875000001746</v>
-      </c>
-      <c r="P38" s="7">
+        <v>-198.920625</v>
+      </c>
+      <c r="P38" s="8">
         <f>O36-O35</f>
-        <v>127.89249999999811</v>
-      </c>
-      <c r="Q38" s="7">
-        <f t="shared" si="6"/>
-        <v>31.973124999999527</v>
-      </c>
-      <c r="R38" s="4" t="s">
+        <v>0.53</v>
+      </c>
+      <c r="Q38" s="8">
+        <f>P38/4</f>
+        <v>0.1325</v>
+      </c>
+      <c r="R38" t="s" s="5">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="10:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J39" s="4" t="s">
+    <row r="39" ht="20.05" customHeight="1">
+      <c r="J39" t="s" s="5">
         <v>2</v>
       </c>
-      <c r="K39" s="4" t="s">
+      <c r="K39" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="L39" s="4" t="s">
+      <c r="L39" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="M39" s="7">
-        <v>18074.834999999999</v>
-      </c>
-      <c r="N39" s="7">
+      <c r="M39" s="8">
+        <f>H21</f>
+        <v>14489.599375</v>
+      </c>
+      <c r="N39" s="8">
         <f>M38-M37</f>
-        <v>107.88062499999796</v>
-      </c>
-      <c r="O39" s="7">
+        <v>462.999375</v>
+      </c>
+      <c r="O39" s="8">
         <f>N38-N37</f>
-        <v>-88.473125000000437</v>
-      </c>
-      <c r="P39" s="7">
+        <v>6.390625</v>
+      </c>
+      <c r="P39" s="8">
         <f>O38-O37</f>
-        <v>43.857499999998254</v>
-      </c>
-      <c r="Q39" s="7">
-        <f t="shared" si="6"/>
-        <v>10.964374999999563</v>
-      </c>
-      <c r="R39" s="4" t="s">
+        <v>0.09125</v>
+      </c>
+      <c r="Q39" s="8">
+        <f>P39/4</f>
+        <v>0.0228125</v>
+      </c>
+      <c r="R39" t="s" s="5">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="10:18" ht="20" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="J40" s="4" t="s">
+    <row r="40" ht="20.05" customHeight="1">
+      <c r="J40" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="K40" s="4" t="s">
+      <c r="K40" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="L40" s="4" t="s">
+      <c r="L40" t="s" s="5">
         <v>3</v>
       </c>
-      <c r="M40" s="7">
-        <v>18124.532500000001</v>
-      </c>
-      <c r="N40" s="7">
+      <c r="M40" s="8">
+        <f>I21</f>
+        <v>14952.225625</v>
+      </c>
+      <c r="N40" s="8">
         <f>M40-M39</f>
-        <v>49.697500000002037</v>
-      </c>
-      <c r="O40" s="7">
+        <v>462.62625</v>
+      </c>
+      <c r="O40" s="8">
         <f>N40-N39</f>
-        <v>-58.183124999995925</v>
-      </c>
-      <c r="P40" s="7">
+        <v>-0.373125</v>
+      </c>
+      <c r="P40" s="8">
         <f>O40-O39</f>
-        <v>30.290000000004511</v>
-      </c>
-      <c r="Q40" s="7">
-        <f t="shared" si="6"/>
-        <v>7.5725000000011278</v>
-      </c>
-      <c r="R40" s="4" t="s">
+        <v>-6.76375</v>
+      </c>
+      <c r="Q40" s="8">
+        <f>P40/4</f>
+        <v>-1.6909375</v>
+      </c>
+      <c r="R40" t="s" s="5">
         <v>21</v>
       </c>
     </row>
+    <row r="42" ht="27.65" customHeight="1">
+      <c r="S42" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="T42" s="2"/>
+      <c r="U42" s="2"/>
+    </row>
+    <row r="43" ht="20.05" customHeight="1">
+      <c r="S43" t="s" s="5">
+        <v>23</v>
+      </c>
+      <c r="T43" t="s" s="5">
+        <v>1</v>
+      </c>
+      <c r="U43" t="s" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="44" ht="20.05" customHeight="1">
+      <c r="S44" s="8">
+        <v>10900.92</v>
+      </c>
+      <c r="T44" s="8">
+        <v>11367.11</v>
+      </c>
+      <c r="U44" s="8">
+        <v>10794.61</v>
+      </c>
+    </row>
+    <row r="45" ht="20.05" customHeight="1">
+      <c r="S45" s="8">
+        <v>10906.76</v>
+      </c>
+      <c r="T45" s="8">
+        <v>11378.72</v>
+      </c>
+      <c r="U45" s="9">
+        <v>10767.41</v>
+      </c>
+    </row>
+    <row r="46" ht="20.05" customHeight="1">
+      <c r="S46" s="8">
+        <v>10953.88</v>
+      </c>
+      <c r="T46" s="8">
+        <v>11412.14</v>
+      </c>
+      <c r="U46" s="9">
+        <v>10828.86</v>
+      </c>
+    </row>
+    <row r="47" ht="20.05" customHeight="1">
+      <c r="S47" s="8">
+        <v>10952.8</v>
+      </c>
+      <c r="T47" s="9">
+        <v>11408.87</v>
+      </c>
+      <c r="U47" s="9">
+        <v>10820.71</v>
+      </c>
+    </row>
+    <row r="48" ht="20.05" customHeight="1">
+      <c r="S48" s="8">
+        <v>10884.9</v>
+      </c>
+      <c r="T48" s="9">
+        <v>11350.66</v>
+      </c>
+      <c r="U48" s="9">
+        <v>10779.45</v>
+      </c>
+    </row>
+    <row r="49" ht="20.05" customHeight="1">
+      <c r="S49" s="8">
+        <v>10935.26</v>
+      </c>
+      <c r="T49" s="9">
+        <v>11405.63</v>
+      </c>
+      <c r="U49" s="9">
+        <v>10816.16</v>
+      </c>
+    </row>
+    <row r="50" ht="20.05" customHeight="1">
+      <c r="S50" s="8">
+        <v>10918.67</v>
+      </c>
+      <c r="T50" s="9">
+        <v>11391.77</v>
+      </c>
+      <c r="U50" s="9">
+        <v>10806.94</v>
+      </c>
+    </row>
+    <row r="51" ht="20.05" customHeight="1">
+      <c r="S51" s="8">
+        <v>10942.62</v>
+      </c>
+      <c r="T51" s="9">
+        <v>11442.2</v>
+      </c>
+      <c r="U51" s="9">
+        <v>10822.15</v>
+      </c>
+    </row>
+    <row r="52" ht="20.05" customHeight="1">
+      <c r="S52" s="8">
+        <v>10915.21</v>
+      </c>
+      <c r="T52" s="9">
+        <v>11390.12</v>
+      </c>
+      <c r="U52" s="9">
+        <v>10801.98</v>
+      </c>
+    </row>
+    <row r="53" ht="20.05" customHeight="1">
+      <c r="S53" s="8">
+        <v>10915.13</v>
+      </c>
+      <c r="T53" s="9">
+        <v>11388.55</v>
+      </c>
+      <c r="U53" s="9">
+        <v>10785.74</v>
+      </c>
+    </row>
+    <row r="54" ht="20.05" customHeight="1">
+      <c r="S54" s="8">
+        <v>10903.52</v>
+      </c>
+      <c r="T54" s="9">
+        <v>11352.59</v>
+      </c>
+      <c r="U54" s="9">
+        <v>10765.94</v>
+      </c>
+    </row>
+    <row r="55" ht="20.05" customHeight="1">
+      <c r="S55" s="8">
+        <v>10916.62</v>
+      </c>
+      <c r="T55" s="9">
+        <v>11383.63</v>
+      </c>
+      <c r="U55" s="9">
+        <v>10806.03</v>
+      </c>
+    </row>
+    <row r="56" ht="20.05" customHeight="1">
+      <c r="S56" s="8">
+        <v>10898.91</v>
+      </c>
+      <c r="T56" s="9">
+        <v>11345.93</v>
+      </c>
+      <c r="U56" s="9">
+        <v>10772.57</v>
+      </c>
+    </row>
+    <row r="57" ht="20.05" customHeight="1">
+      <c r="S57" s="8">
+        <v>10925.45</v>
+      </c>
+      <c r="T57" s="9">
+        <v>11409.03</v>
+      </c>
+      <c r="U57" s="9">
+        <v>10781.38</v>
+      </c>
+    </row>
+    <row r="58" ht="20.05" customHeight="1">
+      <c r="S58" s="8">
+        <v>10895.8</v>
+      </c>
+      <c r="T58" s="9">
+        <v>11371.54</v>
+      </c>
+      <c r="U58" s="9">
+        <v>10776.29</v>
+      </c>
+    </row>
+    <row r="59" ht="20.05" customHeight="1">
+      <c r="S59" s="8">
+        <v>10930.76</v>
+      </c>
+      <c r="T59" s="9">
+        <v>11411.24</v>
+      </c>
+      <c r="U59" s="9">
+        <v>10817.31</v>
+      </c>
+    </row>
+    <row r="60" ht="20.05" customHeight="1">
+      <c r="S60" s="8">
+        <f>AVERAGE(S43:S59)</f>
+        <v>10918.575625</v>
+      </c>
+      <c r="T60" s="9">
+        <f>AVERAGE(T43:T59)</f>
+        <v>11388.108125</v>
+      </c>
+      <c r="U60" s="9">
+        <f>AVERAGE(U43:U59)</f>
+        <v>10796.470625</v>
+      </c>
+    </row>
+    <row r="61" ht="20.05" customHeight="1">
+      <c r="S61" s="8"/>
+      <c r="T61" s="9">
+        <f>(T60-S60)/60</f>
+        <v>7.82554166666667</v>
+      </c>
+      <c r="U61" s="9">
+        <f>(U60-S60)/60</f>
+        <v>-2.03508333333333</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="J31:R31"/>
+    <mergeCell ref="S42:U42"/>
   </mergeCells>
-  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.27777800000000002" footer="0.27777800000000002"/>
-  <pageSetup scale="72" orientation="portrait"/>
+  <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
+  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>
